--- a/results/comparaison/statistical_test.xlsx
+++ b/results/comparaison/statistical_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Z</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,28 +477,28 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="E2">
-        <v>0.3095238095238095</v>
+        <v>0.2716624523251769</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>57.66689474795207</v>
+        <v>83.75187863934924</v>
       </c>
       <c r="I2">
-        <v>61.09479788701067</v>
+        <v>58.17884983004602</v>
       </c>
       <c r="J2">
-        <v>117.2110503232442</v>
+        <v>104.5004845647083</v>
       </c>
       <c r="K2">
-        <v>35.51769852493202</v>
+        <v>54.7182031778317</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -511,189 +508,191 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>12.5</v>
+        <v>420.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>57.66689474795207</v>
+        <v>83.75187863934924</v>
       </c>
       <c r="I3">
-        <v>61.09479788701067</v>
+        <v>58.17884983004602</v>
       </c>
       <c r="J3">
-        <v>57.66689474795207</v>
+        <v>83.75187863934924</v>
       </c>
       <c r="K3">
-        <v>61.09479788701067</v>
+        <v>58.17884983004602</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="E4">
-        <v>0.4206349206349206</v>
+        <v>0.993256724963732</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>57.66689474795207</v>
+        <v>82.36644370295413</v>
       </c>
       <c r="I4">
-        <v>61.09479788701067</v>
+        <v>56.95910503270918</v>
       </c>
       <c r="J4">
-        <v>92.7300901005103</v>
+        <v>81.09272321856085</v>
       </c>
       <c r="K4">
-        <v>71.46341629213566</v>
+        <v>54.7507318548296</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>312.5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>82.36644370295413</v>
+      </c>
+      <c r="I5">
+        <v>56.95910503270918</v>
+      </c>
+      <c r="J5">
+        <v>82.36644370295413</v>
+      </c>
+      <c r="K5">
+        <v>56.95910503270918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>0.007936507936507936</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>146.8138067737623</v>
-      </c>
-      <c r="I5">
-        <v>6.777384555941812</v>
-      </c>
-      <c r="J5">
-        <v>113.7537603334979</v>
-      </c>
-      <c r="K5">
-        <v>11.35937683196904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D6">
-        <v>12.5</v>
+        <v>400</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.6009132593613584</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>146.8138067737623</v>
+        <v>0.75357176281352</v>
       </c>
       <c r="I6">
-        <v>6.777384555941812</v>
+        <v>0.03649346386724815</v>
       </c>
       <c r="J6">
-        <v>146.8138067737623</v>
+        <v>0.7526724979683626</v>
       </c>
       <c r="K6">
-        <v>6.777384555941812</v>
+        <v>0.04253576527509259</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>420.5</v>
       </c>
       <c r="E7">
-        <v>0.5476190476190477</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>146.8138067737623</v>
+        <v>0.75357176281352</v>
       </c>
       <c r="I7">
-        <v>6.777384555941812</v>
+        <v>0.03649346386724815</v>
       </c>
       <c r="J7">
-        <v>150.6280717457104</v>
+        <v>0.75357176281352</v>
       </c>
       <c r="K7">
-        <v>6.215042775406177</v>
+        <v>0.03649346386724815</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>467</v>
       </c>
       <c r="E8">
-        <v>0.5476190476190477</v>
+        <v>0.1219519397691816</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>0.7747347506564111</v>
+        <v>0.9378614807248016</v>
       </c>
       <c r="I8">
-        <v>0.03044971068276449</v>
+        <v>0.03028899431393336</v>
       </c>
       <c r="J8">
-        <v>0.7891784188532511</v>
+        <v>0.9347497381754252</v>
       </c>
       <c r="K8">
-        <v>0.03111932018913976</v>
+        <v>0.01695378151816075</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -703,359 +702,171 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>12.5</v>
+        <v>312.5</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>0.7747347506564111</v>
+        <v>0.9378614807248016</v>
       </c>
       <c r="I9">
-        <v>0.03044971068276449</v>
+        <v>0.03028899431393336</v>
       </c>
       <c r="J9">
-        <v>0.7747347506564111</v>
+        <v>0.9378614807248016</v>
       </c>
       <c r="K9">
-        <v>0.03044971068276449</v>
+        <v>0.03028899431393336</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="E10">
-        <v>0.03174603174603174</v>
+        <v>0.007448750804058943</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>0.7747347506564111</v>
+        <v>8.388601323925894</v>
       </c>
       <c r="I10">
-        <v>0.03044971068276449</v>
+        <v>2.949148801245047</v>
       </c>
       <c r="J10">
-        <v>0.8491324487220748</v>
+        <v>11.90627484263</v>
       </c>
       <c r="K10">
-        <v>0.03685991484900392</v>
+        <v>5.875529055961112</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>420.5</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>0.9228176568987475</v>
+        <v>8.388601323925894</v>
       </c>
       <c r="I11">
-        <v>0.01714628114002633</v>
+        <v>2.949148801245047</v>
       </c>
       <c r="J11">
-        <v>0.9256056225030831</v>
+        <v>8.388601323925894</v>
       </c>
       <c r="K11">
-        <v>0.01680891938692598</v>
+        <v>2.949148801245047</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>12.5</v>
+        <v>415</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.5043430755371237</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>0.9228176568987475</v>
+        <v>16.49369264847812</v>
       </c>
       <c r="I12">
-        <v>0.01714628114002633</v>
+        <v>3.9345409190217</v>
       </c>
       <c r="J12">
-        <v>0.9228176568987475</v>
+        <v>16.77037636126821</v>
       </c>
       <c r="K12">
-        <v>0.01714628114002633</v>
+        <v>5.973135679142302</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>312.5</v>
       </c>
       <c r="E13">
-        <v>0.6904761904761905</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>0.9228176568987475</v>
+        <v>16.49369264847812</v>
       </c>
       <c r="I13">
-        <v>0.01714628114002633</v>
+        <v>3.9345409190217</v>
       </c>
       <c r="J13">
-        <v>0.9238224725556833</v>
+        <v>16.49369264847812</v>
       </c>
       <c r="K13">
-        <v>0.01538679068072139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0.6904761904761905</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>11.10809811522833</v>
-      </c>
-      <c r="I14">
-        <v>4.159442465336217</v>
-      </c>
-      <c r="J14">
-        <v>12.7900792783695</v>
-      </c>
-      <c r="K14">
-        <v>3.914984363244713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>12.5</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>11.10809811522833</v>
-      </c>
-      <c r="I15">
-        <v>4.159442465336217</v>
-      </c>
-      <c r="J15">
-        <v>11.10809811522833</v>
-      </c>
-      <c r="K15">
-        <v>4.159442465336217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>0.4206349206349206</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>11.10809811522833</v>
-      </c>
-      <c r="I16">
-        <v>4.159442465336217</v>
-      </c>
-      <c r="J16">
-        <v>8.314201021286157</v>
-      </c>
-      <c r="K16">
-        <v>1.567034472332917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0.8412698412698413</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>16.41011268472492</v>
-      </c>
-      <c r="I17">
-        <v>6.573328967158176</v>
-      </c>
-      <c r="J17">
-        <v>15.79990285848165</v>
-      </c>
-      <c r="K17">
-        <v>5.909119882532795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>12.5</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>16.41011268472492</v>
-      </c>
-      <c r="I18">
-        <v>6.573328967158176</v>
-      </c>
-      <c r="J18">
-        <v>16.41011268472492</v>
-      </c>
-      <c r="K18">
-        <v>6.573328967158176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>0.1507936507936508</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>16.41011268472492</v>
-      </c>
-      <c r="I19">
-        <v>6.573328967158176</v>
-      </c>
-      <c r="J19">
-        <v>18.66543799962238</v>
-      </c>
-      <c r="K19">
-        <v>2.266821217368342</v>
+        <v>3.9345409190217</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
